--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Response</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>brand</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>affiliateUrl</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
     </row>
@@ -453,9 +488,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{"name":"SweetLeaf Drops Liquid Stevia Sweetener, Vanilla Creme, 4 Oz","image":"https://m.media-amazon.com/images/I/41kFXP+d7QL._SL500_.jpg","images":["https://m.media-amazon.com/images/I/5196yu3DjKL._SL500_.jpg","https://m.media-amazon.com/images/I/51VS17qcjzL._SL500_.jpg","https://m.media-amazon.com/images/I/41G6FS7g8wL._SL500_.jpg","https://m.media-amazon.com/images/I/51nzuPWcb7L._SL500_.jpg","https://m.media-amazon.com/images/I/516ivp7WXFL._SL500_.jpg","https://m.media-amazon.com/images/I/41U04LlT0dL._SL500_.jpg"],"videos":null,"brand":"SweetLeaf","categories":["14cce217-54d2-4cdd-b02f-79079ada59e9_0","14cce217-54d2-4cdd-b02f-79079ada59e9_8801","14cce217-54d2-4cdd-b02f-79079ada59e9_9101","ab47f18a-1a7a-4dbe-b89a-001bfaccbe8b_0","ab47f18a-1a7a-4dbe-b89a-001bfaccbe8b_1801","ab47f18a-1a7a-4dbe-b89a-001bfaccbe8b_6301","AmazonFresh Self Service","Arborist Merchandising Root","Drugstore","Grocery","Grocery &amp; Gourmet Food","Health &amp; Household","Herbal Supplements","Other Herbal Supplements","Products","Self Service","Special Features Stores","Stevia","Sugar &amp; Sweeteners","Sugars &amp; Sweeteners","Supplements Deals","Vitamins, Minerals &amp; Supplements"],"retailer":"f82ac986-c400-45b1-aea3-315278219cc5","summary":null,"description":"ZERO CALORIE SWEETENER: SweetLeaf Vanilla Creme Sweet Drops deliver satisfying sweetness without added sugars. Enjoy the taste you love with zero calories, perfect for enhancing your favorite recipes&lt;br /&gt;\r\nSWEETEN YOUR FAVORITES: Our sweet drops are a zero-calorie option with natural flavors for coffee, water, smoothies, baking, sauces, and more. You're in control of every delicious choice&lt;br /&gt;\r\nCONVENIENT FOR ON THE GO: With its compact 4 oz bottle, our liquid stevia sweetener is easy to carry, so you can enjoy zero-calorie sweetness anytime and anywhere&lt;br /&gt;\r\nNO ADDED SUGAR: Enhance your favorite drink mixes by replacing sugar, not the taste. SweetLeaf's stevia liquid drops are sweetened by nature with no sugars, calories, or artificial ingredients&lt;br /&gt;\r\nPERFECT FOR EVERY LIFESTYLE: Our delicious sweet drops are keto friendly with zero calories or carbs. Enjoy naturally sweet flavor with no artificial ingredients or aftertaste","affiliateUrl":"https://www.amazon.com/dp/B082YTDW84?tag=1sale06-20&amp;linkCode=ogi&amp;th=1&amp;psc=1","rawUrl":"https://www.amazon.com/SweetLeaf-Liquid-Stevia-Sweetener-Vanilla/dp/B082YTDW84?pd_rd_w=Q0jaO&amp;content-id=amzn1.sym.0c00971a-971c-4dda-a54c-e65f98cf0e25&amp;pf_rd_p=0c00971a-971c-4dda-a54c-e65f98cf0e25&amp;pf_rd_r=39PRVPQETJW7V4RK0W49&amp;pd_rd_wg=4t4NN&amp;pd_rd_r=eb7d4ba4-dbc1-4a6e-92a9-86d4b0df78a5&amp;ref_=pd_bap_d_csi_vtp_0_t&amp;th=1\"","price":{"list":"","selling":"$14.32"}}</t>
-        </is>
-      </c>
+          <t>SweetLeaf Drops Liquid Stevia Sweetener, Vanilla Creme, 4 Oz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{https://m.media-amazon.com/images/I/5196yu3DjKL._SL500_.jpg, https://m.media-amazon.com/images/I/51VS17qcjzL._SL500_.jpg, https://m.media-amazon.com/images/I/41G6FS7g8wL._SL500_.jpg, https://m.media-amazon.com/images/I/51nzuPWcb7L._SL500_.jpg, https://m.media-amazon.com/images/I/516ivp7WXFL._SL500_.jpg, https://m.media-amazon.com/images/I/41U04LlT0dL._SL500_.jpg}</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SweetLeaf</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14cce217-54d2-4cdd-b02f-79079ada59e9_0, 14cce217-54d2-4cdd-b02f-79079ada59e9_8801, 14cce217-54d2-4cdd-b02f-79079ada59e9_9101, ab47f18a-1a7a-4dbe-b89a-001bfaccbe8b_0, ab47f18a-1a7a-4dbe-b89a-001bfaccbe8b_1801, ab47f18a-1a7a-4dbe-b89a-001bfaccbe8b_6301, AmazonFresh Self Service, Arborist Merchandising Root, Drugstore, Grocery, Grocery &amp; Gourmet Food, Health &amp; Household, Herbal Supplements, Other Herbal Supplements, Products, Self Service, Special Features Stores, Stevia, Sugar &amp; Sweeteners, Sugars &amp; Sweeteners, Supplements Deals, Vitamins, Minerals &amp; Supplements</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>$14.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/dp/B082YTDW84?tag=1sale06-20&amp;linkCode=ogi&amp;th=1&amp;psc=1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ZERO CALORIE SWEETENER: SweetLeaf Vanilla Creme Sweet Drops deliver satisfying sweetness without added sugars. Enjoy the taste you love with zero calories, perfect for enhancing your favorite recipes&lt;br /&gt;
+SWEETEN YOUR FAVORITES: Our sweet drops are a zero-calorie option with natural flavors for coffee, water, smoothies, baking, sauces, and more. You're in control of every delicious choice&lt;br /&gt;
+CONVENIENT FOR ON THE GO: With its compact 4 oz bottle, our liquid stevia sweetener is easy to carry, so you can enjoy zero-calorie sweetness anytime and anywhere&lt;br /&gt;
+NO ADDED SUGAR: Enhance your favorite drink mixes by replacing sugar, not the taste. SweetLeaf's stevia liquid drops are sweetened by nature with no sugars, calories, or artificial ingredients&lt;br /&gt;
+PERFECT FOR EVERY LIFESTYLE: Our delicious sweet drops are keto friendly with zero calories or carbs. Enjoy naturally sweet flavor with no artificial ingredients or aftertaste</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -465,9 +535,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{"nonCommissionable":false,"name":"Air Jordan 12 Retro Brilliant Orange W FD9101-081 Sneaker Size 10","image":"https://i.ebayimg.com/images/g/LA4AAOSw-WFnbcYj/s-l1600.jpg","images":["https://i.ebayimg.com/images/g/ppgAAOSw3YRnbcYj/s-l1600.jpg","https://i.ebayimg.com/images/g/0H0AAOSwpwlnbcYj/s-l1600.jpg","https://i.ebayimg.com/images/g/z4IAAOSwv9hnbcYj/s-l1600.jpg","https://i.ebayimg.com/images/g/pkUAAOSwhQFnbcYl/s-l1600.jpg","https://i.ebayimg.com/images/g/bXkAAOSw3R5nbcYl/s-l1600.jpg","https://i.ebayimg.com/images/g/kfcAAOSwDGhnbcYl/s-l1600.jpg"],"videos":null,"brand":"Jordan","categories":["Clothing, Shoes &amp; Accessories","Women","Women's Shoes","Athletic Shoes"],"retailer":"ab38f386-d7e9-4637-8b75-94d908194703","summary":"SIZE: 10 CONDITION: USED BOX: NO BOX You will receive the exact item(s) shown in the photos. Any flaws, if applicable, are clearly displayed. All shoes are 100% authentic, or your money back – guaranteed. If you have any questions or are interested in any items, feel free to reach out. We also consider reasonable offers. Items are shipped within 1-2 business days of purchase. Be sure to check out our other listings as well. Thank you for your interest!","description":"&lt;p&gt;SIZE: 10&lt;/p&gt;&lt;p&gt;CONDITION: USED&lt;/p&gt;&lt;p&gt;BOX: NO BOX&lt;/p&gt;&lt;p&gt;You will receive the exact item(s) shown in the photos. Any flaws, if applicable, are clearly displayed. All shoes are 100% authentic, or your money back – guaranteed. If you have any questions or are interested in any items, feel free to reach out. We also consider reasonable offers. Items are shipped within 1-2 business days of purchase. Be sure to check out our other listings as well. Thank you for your interest!&lt;/p&gt;","affiliateUrl":"https://www.ebay.com/itm/296937217728?mkevt=1&amp;mkcid=1&amp;mkrid=711-53200-19255-0&amp;campid=5337590632&amp;customid=&amp;toolid=10050&amp;amdata=enc%3AAQAJAAAAoHoV3kP08IDx%2BKZ9MfhVJKnEz9zHNm5Ys%2FHdWIwSYlOuE0BeX6GH42quGE3sSl5dAg0LEofR9T9lKwWjTQWszIpWYqEeRIYpZ4whzU6PpYw%2FQuDfMJh7%2BGfR8m%2Fw0Ejc3P4pu6ucCzkLejRfaGZhwuKw8QJx8EbiVf0mTr9g99zSqKeSNFLAl4GOh8CVKmgpazlzZF6p%2FP%2BdD9b1sSEc8Gc%3D","rawUrl":"https://www.ebay.com/itm/296937217728?amdata=enc%3AAQAJAAAAoHoV3kP08IDx%2BKZ9MfhVJKnEz9zHNm5Ys%2FHdWIwSYlOuE0BeX6GH42quGE3sSl5dAg0LEofR9T9lKwWjTQWszIpWYqEeRIYpZ4whzU6PpYw%2FQuDfMJh7%2BGfR8m%2Fw0Ejc3P4pu6ucCzkLejRfaGZhwuKw8QJx8EbiVf0mTr9g99zSqKeSNFLAl4GOh8CVKmgpazlzZF6p%2FP%2BdD9b1sSEc8Gc%3D","price":{"list":null,"selling":"199.99"}}</t>
-        </is>
-      </c>
+          <t>Air Jordan 12 Retro Brilliant Orange W FD9101-081 Sneaker Size 10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{https://i.ebayimg.com/images/g/ppgAAOSw3YRnbcYj/s-l1600.jpg, https://i.ebayimg.com/images/g/0H0AAOSwpwlnbcYj/s-l1600.jpg, https://i.ebayimg.com/images/g/z4IAAOSwv9hnbcYj/s-l1600.jpg, https://i.ebayimg.com/images/g/pkUAAOSwhQFnbcYl/s-l1600.jpg, https://i.ebayimg.com/images/g/bXkAAOSw3R5nbcYl/s-l1600.jpg, https://i.ebayimg.com/images/g/kfcAAOSwDGhnbcYl/s-l1600.jpg}</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Clothing, Shoes &amp; Accessories, Women, Women's Shoes, Athletic Shoes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>199.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/296937217728?mkevt=1&amp;mkcid=1&amp;mkrid=711-53200-19255-0&amp;campid=5337590632&amp;customid=&amp;toolid=10050&amp;amdata=enc%3AAQAJAAAAoHoV3kP08IDx%2BKZ9MfhVJKnEz9zHNm5Ys%2FHdWIwSYlOuE0BeX6GH42quGE3sSl5dAvHjNdlmsL2hSYW9oZK%2F%2BMM1M5E0Z0wX84cT1zIF7orTVS6k0Gq2ff4amfsaXYBTo73n6WavdjMvqGmEYfGbtX1vmMjLBZ6jh2Hd5KWKy%2BzX0OLg1JpjaGzQTAPiZGSrbPdx6cZdsN6LCDucMusa0oQ%3D</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;SIZE: 10&lt;/p&gt;&lt;p&gt;CONDITION: USED&lt;/p&gt;&lt;p&gt;BOX: NO BOX&lt;/p&gt;&lt;p&gt;You will receive the exact item(s) shown in the photos. Any flaws, if applicable, are clearly displayed. All shoes are 100% authentic, or your money back – guaranteed. If you have any questions or are interested in any items, feel free to reach out. We also consider reasonable offers. Items are shipped within 1-2 business days of purchase. Be sure to check out our other listings as well. Thank you for your interest!&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -477,9 +578,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{"name":"Crocs Unisex Crocband Clog Sandals","image":"https://i5.walmartimages.com/seo/Crocs-Unisex-Crocband-Clog-Sandals_6b32ffd4-ab1a-4384-aacc-57b23b42e31f.7d3c679761953cffd655bcae355bc84e.jpeg?odnHeight=117&amp;amp;odnWidth=117&amp;amp;odnBg=FFFFFF","images":["https://i5.walmartimages.com/asr/434dfeee-7d81-4d68-b3e7-08a6f4b2d000.1089d5b4d3383fdab33f323223b4a889.jpeg?odnHeight=117&amp;amp;odnWidth=117&amp;amp;odnBg=FFFFFF","https://i5.walmartimages.com/asr/f4fe1afc-e3ac-45c1-9592-111fcade6dbe.87c9f128c67d5259e0a45828fc9980e4.jpeg?odnHeight=117&amp;amp;odnWidth=117&amp;amp;odnBg=FFFFFF","https://i5.walmartimages.com/asr/ff86fce8-faf0-4192-99c7-0cffb7f5f959.6fa57b430edb329f0606bdbed6f573d0.jpeg?odnHeight=117&amp;amp;odnWidth=117&amp;amp;odnBg=FFFFFF","https://i5.walmartimages.com/asr/f849d893-d2cb-4eea-bbc8-846a90664812.c53e6126b4eeb87c9f3a332e1845267a.jpeg?odnHeight=117&amp;amp;odnWidth=117&amp;amp;odnBg=FFFFFF","https://i5.walmartimages.com/seo/Crocs-Unisex-Crocband-Clog-Sandals_6b32ffd4-ab1a-4384-aacc-57b23b42e31f.7d3c679761953cffd655bcae355bc84e.jpeg?odnHeight=640&amp;amp;odnWidth=640&amp;amp;odnBg=FFFFFF"],"videos":null,"brand":"","categories":[],"retailer":"b4a9f439-f763-44e1-a18d-d50f3802adfb","summary":"The Crocband™ Collection features original Croslite™ foam construction for reliable cushioned comfort, a sporty design that’s easy to step into and out of, and a variety of energy-boosting colors and graphic designs. Show your stripes!&lt;ul&gt;   &lt;li&gt;SPORTY, STYLISH AND COMFORTABLE: The Crocs Crocband Clogs feature reliable cushioned comfort, a sporty design, and a variety of energy-boosting colors and graphic designs, making them the Crocs women and men need. Show your stripes.&lt;/li&gt;   &lt;li&gt;LIGHTWEIGHT: These Crocs for men and women are incredibly lightweight, water-friendly and buoyant. The Croslite foam offers an Iconic Crocs Comfort that is perfect for relaxing at home or hanging out at a sports game.&lt;/li&gt;   &lt;li&gt;VENTILATION AND DURABILITY: These innovative Crocs clogs for women and men offer a durable build with advanced ventilation and breathability. The design helps drain water and debris when kickin' around in wet conditions.&lt;/li&gt;   &lt;li&gt;MAKE THEM YOUR OWN: These women's and men's Crocs offer a roomy and generous fit that is sure to match your foot. The Crocs clogs can be customized with Jibbitz charms to reflect your own personal flair.&lt;/li&gt;   &lt;li&gt;CROCS FOR WOMEN AND MEN: The sporty Crocband Crocs are fun to wear inside and out. The options are endless when you expand your wardrobe with these comfortable clogs.&lt;/li&gt;  &lt;/ul&gt;","description":null,"affiliateUrl":"http://linksynergy.walmart.com/fs-bin/click?id=JAQ45s/y9L0&amp;subid=&amp;offerid=223073.1&amp;type=10&amp;tmpid=1082&amp;RD_PARM1=https%3a%2f%2fwww.walmart.com%2fip%2fCrocs-Unisex-Crocband-Clog-Sandals%2f3694045539%3fclassType%3dVARIANT%26from%3d%2fsearch","rawUrl":"https://www.walmart.com/ip/Crocs-Unisex-Crocband-Clog-Sandals/3694045539?classType=VARIANT&amp;from=/search","price":{"list":"","selling":"$19.88"}}</t>
-        </is>
-      </c>
+          <t>Crocs Unisex Crocband Clog Sandals</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{https://i5.walmartimages.com/asr/434dfeee-7d81-4d68-b3e7-08a6f4b2d000.1089d5b4d3383fdab33f323223b4a889.jpeg?odnHeight=117&amp;amp;odnWidth=117&amp;amp;odnBg=FFFFFF, https://i5.walmartimages.com/asr/f4fe1afc-e3ac-45c1-9592-111fcade6dbe.87c9f128c67d5259e0a45828fc9980e4.jpeg?odnHeight=117&amp;amp;odnWidth=117&amp;amp;odnBg=FFFFFF, https://i5.walmartimages.com/asr/ff86fce8-faf0-4192-99c7-0cffb7f5f959.6fa57b430edb329f0606bdbed6f573d0.jpeg?odnHeight=117&amp;amp;odnWidth=117&amp;amp;odnBg=FFFFFF, https://i5.walmartimages.com/asr/f849d893-d2cb-4eea-bbc8-846a90664812.c53e6126b4eeb87c9f3a332e1845267a.jpeg?odnHeight=117&amp;amp;odnWidth=117&amp;amp;odnBg=FFFFFF, https://i5.walmartimages.com/seo/Crocs-Unisex-Crocband-Clog-Sandals_6b32ffd4-ab1a-4384-aacc-57b23b42e31f.7d3c679761953cffd655bcae355bc84e.jpeg?odnHeight=640&amp;amp;odnWidth=640&amp;amp;odnBg=FFFFFF}</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>$19.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>http://linksynergy.walmart.com/fs-bin/click?id=JAQ45s/y9L0&amp;subid=&amp;offerid=223073.1&amp;type=10&amp;tmpid=1082&amp;RD_PARM1=https%3a%2f%2fwww.walmart.com%2fip%2fCrocs-Unisex-Crocband-Clog-Sandals%2f3694045539%3fclassType%3dVARIANT%26from%3d%2fsearch</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -489,9 +609,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{"name":"Optimize - Multipurpose Responsive Email Template with Online StampReady &amp;amp; Mailchimp Builders","image":"https://s3.envato.com/files/250787163/preview/01_preview.__large_preview.jpg","images":[],"videos":null,"brand":"","categories":[],"retailer":"unknown","summary":"Buy Optimize - Multipurpose Responsive Email Template with Online StampReady &amp;amp; Mailchimp Builders by pennyblack on ThemeForest. About Template Optimize is a multipurpose responsive email template suitable for any kind of corporate, office, busin...","description":"About Template\nOptimize is a multipurpose responsive email template suitable for any kind of corporate, office, business and general categories. It contains 3 demos and 15 files.\nOptimize compatibl...","affiliateUrl":"https://themeforest.net/item/optimize-multipurpose-responsive-email-template-with-online-stampready-builder-access/22289915","rawUrl":"https://themeforest.net/item/optimize-multipurpose-responsive-email-template-with-online-stampready-builder-access/22289915","price":{"list":"","selling":""}}</t>
-        </is>
-      </c>
+          <t>Optimize - Multipurpose Responsive Email Template with Online StampReady &amp;amp; Mailchimp Builders</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://themeforest.net/item/optimize-multipurpose-responsive-email-template-with-online-stampready-builder-access/22289915</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>About Template
+Optimize is a multipurpose responsive email template suitable for any kind of corporate, office, business and general categories. It contains 3 demos and 15 files.
+Optimize compatibl...</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -501,9 +638,536 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{"name":"[Hot Item] Kubao Mini Electric Trike Three Wheel Motorcycle","image":"https://image.made-in-china.com/2f0j00TzEoCDphamgK/Kubao-Mini-Electric-Trike-Three-Wheel-Motorcycle.jpg","images":[],"videos":null,"brand":"","categories":[],"retailer":"unknown","summary":null,"description":"After-sales Service: Yes Warranty: One Year Certification: ISO 9001:2008, CCC Usage: Passenger Power: Battery Body Type: Closed","affiliateUrl":"https://jinhemotuo.en.made-in-china.com/product/qJARhCMVOgYf/China-Kubao-Mini-Electric-Trike-Three-Wheel-Motorcycle.html?pv_id=1iibhcad7794&amp;faw_id=1iibhcg598f6","rawUrl":"https://jinhemotuo.en.made-in-china.com/product/qJARhCMVOgYf/China-Kubao-Mini-Electric-Trike-Three-Wheel-Motorcycle.html?pv_id=1iibhcad7794&amp;faw_id=1iibhcg598f6","price":{"list":"","selling":""}}</t>
-        </is>
-      </c>
+          <t>[Hot Item] Kubao Mini Electric Trike Three Wheel Motorcycle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://jinhemotuo.en.made-in-china.com/product/qJARhCMVOgYf/China-Kubao-Mini-Electric-Trike-Three-Wheel-Motorcycle.html?pv_id=1iibhcad7794&amp;faw_id=1iibhcg598f6</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>After-sales Service: Yes Warranty: One Year Certification: ISO 9001:2008, CCC Usage: Passenger Power: Battery Body Type: Closed</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://browze.com/products/2-piece-queen-satin-pillowcase-set</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>http://www.shareasale.com/r.cfm?u=881631&amp;b=564983&amp;m=51641&amp;afftrack=&amp;urllink=browze.com%2fproducts%2f2-piece-queen-satin-pillowcase-set</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.gearbest.ma/product/leadjoy-vx2-aimbox-keyboard-mouse-controller-adapter-converter-for-xbox-series-x-xbox-series-s-playstation-4-nintendo-switch-2/</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Expecting value: line 1 column 1 (char 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.joesnewbalanceoutlet.com/pd/q-speed-jacquard-short-sleeve/MT23281.html?dwvar_MT23281_style=MT23281LAY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>500 Server Error: Internal Server Error for url: https://content.fitforcloud.com/api/Products/ParseUrl</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.buydig.com/shop/product/NKD780K24120/Nikon-D780-FX-Format-Digital-SLR-Camera-Body-with-AF-S-NIKKOR-24-120mm-f4G-ED-Lens</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nikon D780 FX-Format Digital SLR Camera Body with AF-S NIKKOR 24 -120mm f/4G ED Lens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>http://www.anrdoezrs.net/links/7321941/type/dlg/sid/1sale-anon/https://www.buydig.com/shop/product/NKD780K24120/Nikon-D780-FX-Format-Digital-SLR-Camera-Body-with-AF-S-NIKKOR-24-120mm-f4G-ED-Lens</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.itechdeals.com/collections/homepage-promos-2/products/apple-airpods-1st-generation-with-charging-case</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>http://www.shareasale.com/r.cfm?u=881631&amp;b=488813&amp;m=47843&amp;afftrack=&amp;urllink=www.itechdeals.com%2fcollections%2fhomepage-promos-2%2fproducts%2fapple-airpods-1st-generation-with-charging-case</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://dailysale.com/products/samsung-galaxy-tab-a-wifi-7-8gb-tablet-sm-t280-black?_pos=2&amp;_fid=7a8cf965d&amp;_ss=c</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Samsung Galaxy Tab A WIFI 7" 8GB Tablet SM-T280 - Black (Refurbished)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{https://dailysale.com/cdn/shop/products/samsung-galaxy-tab-a-wifi-7-8gb-tablet-sm-t280-black-refurbished-tablets-dailysale-973336_1024x.jpg?v=1654197858, https://dailysale.com/cdn/shop/products/samsung-galaxy-tab-a-wifi-7-8gb-tablet-sm-t280-black-refurbished-tablets-dailysale-907406_1024x.jpg?v=1654197862, https://dailysale.com/cdn/shop/products/samsung-galaxy-tab-a-wifi-7-8gb-tablet-sm-t280-black-refurbished-tablets-dailysale-973336_1024x.jpg?v=1654197858}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>$48.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>http://www.shareasale.com/r.cfm?u=881631&amp;b=562574&amp;m=51523&amp;afftrack=&amp;urllink=dailysale.com%2fproducts%2fsamsung-galaxy-tab-a-wifi-7-8gb-tablet-sm-t280-black%3f_pos%3d2%26_fid%3d7a8cf965d%26_ss%3dc%26utm_source%3d1sale%26utm_medium%3dreferral%26utm_campaign%3demail</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Designed to be connected to the Internet, this versatile Samsung Galaxy Tab SM-T280 tablet supports network applications to keep you connected with family, friends, or business contacts via social media, or even to collaborate on projects with cloud-based applications. The Samsung brand is dedicated to offering value and convenience to customers through its innovative product lines. For users who prefer to stream or save to the cloud, the tablet's 8 GB storage capacity provides an affordable option. &lt;br data-mce-fragment="1"&gt;&lt;/p&gt;
+&lt;h6&gt;Features:&lt;/h6&gt;
+&lt;ul&gt;
+&lt;li&gt;Processor: Quad Core&lt;/li&gt;
+&lt;li&gt;Screen Size: 7 in&lt;/li&gt;
+&lt;li&gt;Color: Black&lt;/li&gt;
+&lt;li&gt;RAM Size: 1.5 GB&lt;/li&gt;
+&lt;li&gt;MPN: SMT280NZKAXAR, SM-T280NZKAXAR&lt;/li&gt;
+&lt;li&gt;Internet Connectivity: Wi-Fi&lt;/li&gt;
+&lt;li&gt;Processor Speed: 1.30 GHz&lt;/li&gt;
+&lt;li&gt;Brand: Samsung&lt;/li&gt;
+&lt;li&gt;Series: Galaxy&lt;/li&gt;
+&lt;li&gt;Type: Tablet&lt;/li&gt;
+&lt;li&gt;Battery Capacity: 4000 mAh&lt;/li&gt;
+&lt;li&gt;Display Type: TFT&lt;/li&gt;
+&lt;li&gt;Maximum Resolution: 1280 x 800&lt;/li&gt;
+&lt;li&gt;Item Height: 7.35in.&lt;/li&gt;
+&lt;li&gt;Model: Galaxy Tab A&lt;/li&gt;
+&lt;li&gt;Connectivity: Micro-USB&lt;/li&gt;
+&lt;li&gt;Operating System: Android&lt;/li&gt;
+&lt;li&gt;Storage Capacity: 8 GB&lt;/li&gt;
+&lt;/ul&gt;</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://dailysteals.com/products/apple-watch-series-9-41mm-mrhy3lw-a-gps-lte.html</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Apple Watch Series 9, 41mm, MRHY3LW/A (GPS + LTE)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{https://cdn11.bigcommerce.com/s-g1m2zz2uro/images/stencil/1280x1280/products/30803/346913/p55764309213_2_67893e5b989c8e22bfe00435__60444.1737943302.jpg?c=1, https://cdn11.bigcommerce.com/s-g1m2zz2uro/images/stencil/1280x1280/products/30803/346914/p55764309213_3_67893e5c989c8e22bfe00436__29860.1737943302.jpg?c=1, https://cdn11.bigcommerce.com/s-g1m2zz2uro/images/stencil/1280x1280/products/30803/346915/p55764309213_67893e5a989c8e22bfe0039f__32524.1737943302.jpg?c=1}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>$269.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>http://www.shareasale.com/r.cfm?b=804898&amp;u=881631&amp;m=62772&amp;urllink=dailysteals.com%2fproducts%2fapple-watch-series-9-41mm-mrhy3lw-a-gps-lte.html%3futm_source%3d1sale%26utm_medium%3dreferral%26utm_campaign%3demail&amp;afftrack=</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>&lt;div id="product_description"&gt;&lt;p&gt;The Apple Watch Series 9 is your ultimate companion for an active, healthy, and connected lifestyle. Its super-bright display makes it easy to view time, notifications, and essential information. Advanced health features monitor your well-being, including heart rate, blood oxygen levels, and sleep patterns. Track your fitness progress with the Workout app, while Fall Detection and Crash Detection provide peace of mind in emergencies.&lt;/p&gt;
+&lt;br&gt;&lt;/div&gt;&lt;div id="product_features"&gt;&lt;p&gt;&lt;strong&gt;Features:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+	&lt;li&gt;S9 chip enables a superbright display and a magical new way to quickly and easily interact with your Apple Watch without touching the screen&lt;/li&gt;
+	&lt;li&gt;Advanced health, safety, and activity features provide powerful insights and help when you need it&lt;/li&gt;
+	&lt;li&gt;Aluminum Apple Watch Series 9 paired with the latest Sport Loop is carbon neutral&lt;/li&gt;
+	&lt;li&gt;Keep an eye on your blood oxygen&lt;/li&gt;
+	&lt;li&gt;Take an ECG anytime&lt;/li&gt;
+	&lt;li&gt;Get notifications if you have an irregular heart rhythm&lt;/li&gt;
+	&lt;li&gt;See how much time you spent in REM, Core, or Deep sleep with sleep stages&lt;/li&gt;
+	&lt;li&gt;Temperature sensing provides insights into overall well-being and cycle tracks&lt;/li&gt;
+	&lt;li&gt;Take note of your state of mind to help build emotional awareness and resilience&lt;/li&gt;
+	&lt;li&gt;Workout app gives you a range of ways to train plus advanced metrics for more insights about your workout performance&lt;/li&gt;
+	&lt;li&gt;Fall Detection and Crash Detection can connect you with emergency services in the event of a hard fall or a severe car crash&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Deals you'll go nuts for!℠&lt;/p&gt;
+&lt;/div&gt;&lt;div id="more_info"&gt;&lt;p&gt;&lt;strong&gt;What&amp;#39;s in the Box?&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+	&lt;li&gt;Apple Watch Series 9, 41mm, MRHY3LW/A (GPS + LTE)&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Specifications:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+	&lt;li&gt;Brand: Apple&lt;/li&gt;
+	&lt;li&gt;Series: Watch 9&lt;/li&gt;
+	&lt;li&gt;Model:&amp;nbsp;MRHY3LW/A&lt;/li&gt;
+	&lt;li&gt;Color: Pink&lt;/li&gt;
+	&lt;li&gt;Size: 41mm&lt;/li&gt;
+	&lt;li&gt;Limited Quantity Available&lt;/li&gt;
+	&lt;li&gt;90 Day Warranty&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;NOTE: This device is not intended or implied to be a substitute for professional medical advice, diagnosis, or treatment.&lt;/p&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.wayfair.com/home/pdp/joss-main-piedmont-1-light-9-flush-mount-w004211581.html?piid=594550493</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>500 Server Error: Internal Server Error for url: https://content.fitforcloud.com/api/Products/ParseUrl</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://home.woot.com/offers/new-hunter-true-hepa-digital-air-purifier-3?ref=w_gw_dd_1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(NEW!) Hunter HP670 True HEPA Digital Tall Tower Air Purifier (Choose Color)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{https://d3gqasl9vmjfd8.cloudfront.net/9734ca41-707f-4d27-8269-78523be981aa.jpg, https://d3gqasl9vmjfd8.cloudfront.net/0ea4c42b-3975-4b81-8275-014960613c3f.jpg, https://d3gqasl9vmjfd8.cloudfront.net/eb5e428b-8c4c-447f-bebe-3cd0741d8ec3.jpg, https://d3gqasl9vmjfd8.cloudfront.net/f47bfe6e-ed28-438c-be1e-385464416ea5.jpg, https://d3gqasl9vmjfd8.cloudfront.net/6caa8cc0-4be1-4f76-896f-d7bb824ba769.jpg, https://d3gqasl9vmjfd8.cloudfront.net/7209bf6a-ebdc-48b3-8e37-f68c8f98abd9.jpg, https://d3gqasl9vmjfd8.cloudfront.net/574b705f-afb6-441f-a0e1-57d8fc2dfae6.jpg}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>$2499</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.tkqlhce.com/click-7321941-13142105?url=https://home.woot.com/offers/new-hunter-true-hepa-digital-air-purifier-3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Improve your indoor air quality in style with the Hunter HP670 True HEPA Air Purifier. Available in neutral color options, this air purifier is guaranteed to clean your air all while complimenting the décor.&lt;/p&gt;
+&lt;p&gt;This large tower air purifier features True HEPA filtration and EcoSilver® pre-filter to rid the air of dust, pet dander, hair, mold spores, bacteria, and viruses.&lt;/p&gt;
+&lt;ul&gt;
+	&lt;li&gt;Silver nanoparticles in the EcoSilver® pre-filter prevent the growth of microorganisms on the filter, including bacteria and viruses&lt;/li&gt;
+	&lt;li&gt;Coconut carbon in the pre-filter neutralizes harmful VOCs (volatile organic compounds) and household odors from cooking, cleaning, smoking, and pets&lt;/li&gt;
+	&lt;li&gt;True HEPA filter removes up to 99.97% of airborne particles as small as 0.3 microns including smoke, dust, pollen, pet hair and dander, mold spores, and dust mite debris&lt;/li&gt;
+	&lt;li&gt;ENERGY STAR rated for lower energy consumption&lt;/li&gt;
+	&lt;li&gt;360-degree air intake&lt;/li&gt;
+	&lt;li&gt;Soft-touch digital control panel&amp;nbsp;&lt;/li&gt;
+	&lt;li&gt;3 fan speeds so you get the cleaning power you want when you want it&lt;/li&gt;
+	&lt;li&gt;Sleep mode with whisper-quiet operation for uninterrupted sleep&lt;/li&gt;
+	&lt;li&gt;Timer with 2, 4, and 8-hour intervals&lt;/li&gt;
+	&lt;li&gt;Filter replacement indicator to remind you when it's time to change the filters&lt;/li&gt;
+	&lt;li&gt;Optional LED accent light for ambiance or nightlight&amp;nbsp;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Specs:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+	&lt;li&gt;Recommended Room: Size&lt;span style="white-space:pre"&gt; &lt;/span&gt;196 Sq. Ft.&lt;/li&gt;
+	&lt;li&gt;CADR Ratings&lt;span style="white-space:pre"&gt; &lt;/span&gt;Smoke: 127, Dust: 135, Pollen: 120&lt;/li&gt;
+	&lt;li&gt;Sound Level:&lt;span style="white-space:pre"&gt; &lt;/span&gt;37-58 dB(A)&lt;/li&gt;
+	&lt;li&gt;Product Dimensions:&lt;span style="white-space:pre"&gt; &lt;/span&gt;8.98 x 8.98 x 22.64 inches&lt;/li&gt;
+	&lt;li&gt;Product Weight:&lt;span style="white-space:pre"&gt; &lt;/span&gt;13.23 pounds&lt;/li&gt;
+	&lt;li&gt;HEPA Filter Replacement:&lt;span style="white-space:pre"&gt; &lt;/span&gt;Change every 6 months, or more often depending on air quality &amp;amp; environmental factors&lt;/li&gt;
+	&lt;li&gt;Pre-Filter Replacement:&lt;span style="white-space:pre"&gt; &lt;/span&gt;Change every 3 months, or more often depending on air quality &amp;amp; environmental factors&lt;/li&gt;
+	&lt;li&gt;&lt;a href="https://d3gqasl9vmjfd8.cloudfront.net/95ad8efd-2a34-4205-a3f9-368f436741a8.pdf"&gt;User Manual&lt;/a&gt;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Shipping Note: &lt;/strong&gt;Shipping to Alaska, Hawaii, APO addresses, or PO Boxes is not available for this item.&lt;/p&gt;
+&lt;p&gt;&lt;b&gt;Warranty:&amp;nbsp;&lt;/b&gt;&lt;strong&gt;&lt;a href="https://d3gqasl9vmjfd8.cloudfront.net/7e3b87d6-d8a1-4a67-af06-3635dea684b2.pdf" target="_blank"&gt;5 year Manufacturer&amp;nbsp;Warranty&lt;/a&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;p class="MsoNormal" style="color:#333333;mso-margin-top-alt:auto;mso-margin-bottom-alt:
+     auto;mso-list:l0 level1 lfo1;tab-stops:list .5in;background:white"&gt;&lt;strong&gt;Optional Asurion Protection Plan:&lt;/strong&gt; To further protect your purchase, you can buy an Asurion protection plan from Amazon &lt;strong&gt;&lt;a href="https://www.amazon.com/stores/page/84EB5403-C643-4F9D-8427-053F1AAE1EC6?channel=WootHomePage" target="_blank"&gt;here&lt;/a&gt;. &lt;/strong&gt;Review the&lt;a href="https://forums.woot.com/t/asurion-protection-plan-faq/964036" target="_blank"&gt;&lt;strong&gt; FAQs &lt;/strong&gt;&lt;/a&gt;for additional information.&amp;nbsp;&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.homedepot.com/p/RYOBI-ONE-18V-Cordless-High-Pressure-Inflator-Tool-Only-PCL001B/327406129?MERCH=REC-_-personalizedDeals-_-n/a-_-2-_-n/a-_-n/a-_-n/a-_-n/a-_-n/a</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>500 Server Error: Internal Server Error for url: https://content.fitforcloud.com/api/Products/ParseUrl</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://vminnovations.com/collections/sporting-goods/products/balancefrom-fitness-gogym-2-inch-thick-tri-fold-folding-gymnastics-mat-pink</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>http://www.shareasale.com/r.cfm?u=881631&amp;b=313668&amp;m=33205&amp;afftrack=&amp;urllink=vminnovations.com%2fcollections%2fsporting-goods%2fproducts%2fbalancefrom-fitness-gogym-2-inch-thick-tri-fold-folding-gymnastics-mat-pink</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.newegg.com/p/N82E16883360568?Item=N82E16883360568</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>500 Server Error: Internal Server Error for url: https://content.fitforcloud.com/api/Products/ParseUrl</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://itparts.com/products/deskonizer-wooden-docking-station-charging-station-for-bedside-table-a-nightstand-organizer</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Deskonizer Wooden docking station, Charging Station for bedside table, a Nightstand organizer</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{http://itparts.com/cdn/shop/products/FULL-Men1copy_large.png?v=1700160214, http://itparts.com/cdn/shop/products/instr1_MEN_large.jpg?v=1700160214, http://itparts.com/cdn/shop/products/Smaller-Wooden-Cell-Phone-Night-Stand-Organizer_c9bf5447-4a34-45f3-b09f-42e59ca9b306_large.jpg?v=1700160214, http://itparts.com/cdn/shop/products/Wooden-Cellphone-Organizer-Mens-women_s-gift-Nightstand-Organizer_0831937d-d90a-4308-8d71-c821229e659f_large.jpg?v=1700160214, http://itparts.com/cdn/shop/products/Mens-women_s-gift-Nightstand-Organizer-Wooden-Cellphone_adc63154-0470-42af-ace5-28056b87c11a_large.jpg?v=1700160214}</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>$79.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>http://www.shareasale.com/r.cfm?u=881631&amp;b=770485&amp;m=61319&amp;afftrack=&amp;urllink=itparts.com%2fproducts%2fdeskonizer-wooden-docking-station-charging-station-for-bedside-table-a-nightstand-organizer</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://untilgone.com/products/portable-countertop-self-cleaning-ice-maker.html</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Portable Countertop Self-Cleaning Ice Maker</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{https://cdn11.bigcommerce.com/s-yqzpac968l/images/stencil/1280x1280/products/1954/40294/2__66737.1737944453.jpg?c=1, https://cdn11.bigcommerce.com/s-yqzpac968l/images/stencil/1280x1280/products/1954/40293/Silver__85175.1737944453.jpg?c=1, https://cdn11.bigcommerce.com/s-yqzpac968l/images/stencil/1280x1280/products/1954/40290/Black__60361.1737944453.jpg?c=1, https://cdn11.bigcommerce.com/s-yqzpac968l/images/stencil/1280x1280/products/1954/40295/Green__35373.1737944453.jpg?c=1, https://cdn11.bigcommerce.com/s-yqzpac968l/images/stencil/1280x1280/products/1954/40287/4__70292.1737944453.jpg?c=1, https://cdn11.bigcommerce.com/s-yqzpac968l/images/stencil/1280x1280/products/1954/40288/3__05149.1737944453.jpg?c=1, https://cdn11.bigcommerce.com/s-yqzpac968l/images/stencil/1280x1280/products/1954/40289/1__14954.1737944453.jpg?c=1, https://cdn11.bigcommerce.com/s-yqzpac968l/images/stencil/1280x1280/products/1954/224474/newmainpyp_54_62aa0b972b812987f4bda9f9__90767.1737944453.png?c=1}</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>$259.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://www.tkqlhce.com/click-7321941-15301479?url=https%3a%2f%2funtilgone.com%2fproducts%2fportable-countertop-self-cleaning-ice-maker.html</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;strong&gt;Features:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul&gt;
+	&lt;li&gt;Produces nine&amp;nbsp;chewable bullet-shaped ice in eight&amp;nbsp;minutes&amp;nbsp;&lt;/li&gt;
+	&lt;li&gt;Makes 26 pounds&amp;nbsp;of ice each day&lt;/li&gt;
+	&lt;li&gt;Self-cleaning function&amp;nbsp;&lt;/li&gt;
+	&lt;li&gt;Simple control panel&lt;/li&gt;
+	&lt;li&gt;Transparent lid&lt;/li&gt;
+	&lt;li&gt;5dB low-noise operation&lt;/li&gt;
+	&lt;li&gt;Take&amp;nbsp;out the ice with ease&amp;nbsp;&lt;/li&gt;
+	&lt;li&gt;ETL and UL certificated&amp;nbsp;&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Yours Until Gone!℠&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.groupon.com/deals/ga-bk-great-wolf-lodge-chicago-gurnee-15</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Hotel Stay with Daily Water Park Passes at Great Wolf Lodge Chicago/Gurnee in Illinois</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{https://img.grouponcdn.com/deal/eyPA2juQJuqysPHqu2Wvza8VR8K/ey-2048x1229, https://img.grouponcdn.com/deal/2xj5MhyRVTKVL7YNknjyBbABaQfz/2x-2048x1229, https://img.grouponcdn.com/deal/diNz5kzt77G1jZcdWNXRT8q865K/di-2048x1229, https://img.grouponcdn.com/deal/2TytYajUmjJ6EG1T4FGHtgyavTCZ/2T-2048x1229, https://img.grouponcdn.com/deal/VGxMJ9dEXmNGGzLDMNmGDL5hea5/VG-2048x1229, https://img.grouponcdn.com/deal/3gCcbqznSXPzHrmQqkZQcAQdGiQp/3g-2048x1229}</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>$110.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://www.anrdoezrs.net/click-7321941-15230314?&amp;url=https%3a%2f%2fwww.groupon.com%2fdeals%2fga-bk-great-wolf-lodge-chicago-gurnee-15</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
